--- a/Documentos/facturas/declaracion-ive.xlsx
+++ b/Documentos/facturas/declaracion-ive.xlsx
@@ -1,66 +1,122 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="plantilla IVE" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet r:id="rId1" sheetId="1" name="plantilla IVE"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+  <si>
+    <t>ANUAL</t>
+  </si>
+  <si>
+    <t>xaneiro</t>
+  </si>
+  <si>
+    <t>febreiro</t>
+  </si>
+  <si>
+    <t>marzo</t>
+  </si>
+  <si>
+    <t>T1</t>
+  </si>
+  <si>
+    <t>abril</t>
+  </si>
+  <si>
+    <t>maio</t>
+  </si>
+  <si>
+    <t>xuño</t>
+  </si>
+  <si>
+    <t>T2</t>
+  </si>
+  <si>
+    <t>xullo</t>
+  </si>
+  <si>
+    <t>agosto</t>
+  </si>
+  <si>
+    <t>setembro</t>
+  </si>
+  <si>
+    <t>T3</t>
+  </si>
+  <si>
+    <t>outubro</t>
+  </si>
+  <si>
+    <t>novembro</t>
+  </si>
+  <si>
+    <t>decembro</t>
+  </si>
+  <si>
+    <t>T4</t>
+  </si>
+  <si>
+    <t>IVE cobrado</t>
+  </si>
+  <si>
+    <t>IVE pagado</t>
+  </si>
+  <si>
+    <t>Declaración</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="6">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
     </font>
     <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="9"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="9"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <family val="2"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="12"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -118,122 +174,63 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf numFmtId="7" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="15">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf xfId="0" numFmtId="7" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="7" fontId="3" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="7" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="7" fontId="4" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf xfId="0" numFmtId="7" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="3" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="7" fontId="4" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf xfId="0" numFmtId="7" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="7" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf xfId="0" numFmtId="7" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="7" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="7" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="7" fontId="5" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf numFmtId="7" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf xfId="0" numFmtId="7" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -521,318 +518,245 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
-    <pageSetUpPr/>
   </sheetPr>
   <dimension ref="A1:S5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col width="14.14785714285714" bestFit="1" customWidth="1" style="12" min="1" max="1"/>
-    <col width="15.29071428571429" bestFit="1" customWidth="1" style="13" min="2" max="2"/>
-    <col width="15.29071428571429" bestFit="1" customWidth="1" style="13" min="3" max="3"/>
-    <col width="15.29071428571429" bestFit="1" customWidth="1" style="13" min="4" max="4"/>
-    <col width="15.29071428571429" bestFit="1" customWidth="1" style="13" min="5" max="5"/>
-    <col width="15.29071428571429" bestFit="1" customWidth="1" style="13" min="6" max="6"/>
-    <col width="15.29071428571429" bestFit="1" customWidth="1" style="13" min="7" max="7"/>
-    <col width="15.29071428571429" bestFit="1" customWidth="1" style="13" min="8" max="8"/>
-    <col width="15.29071428571429" bestFit="1" customWidth="1" style="13" min="9" max="9"/>
-    <col width="15.29071428571429" bestFit="1" customWidth="1" style="13" min="10" max="10"/>
-    <col width="15.29071428571429" bestFit="1" customWidth="1" style="13" min="11" max="11"/>
-    <col width="15.29071428571429" bestFit="1" customWidth="1" style="13" min="12" max="12"/>
-    <col width="15.29071428571429" bestFit="1" customWidth="1" style="13" min="13" max="13"/>
-    <col width="15.29071428571429" bestFit="1" customWidth="1" style="13" min="14" max="14"/>
-    <col width="15.29071428571429" bestFit="1" customWidth="1" style="13" min="15" max="15"/>
-    <col width="15.29071428571429" bestFit="1" customWidth="1" style="13" min="16" max="16"/>
-    <col width="15.29071428571429" bestFit="1" customWidth="1" style="13" min="17" max="17"/>
-    <col width="15.29071428571429" bestFit="1" customWidth="1" style="13" min="18" max="18"/>
-    <col width="14.14785714285714" bestFit="1" customWidth="1" style="12" min="19" max="19"/>
+    <col min="1" max="1" style="12" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="13" width="15.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="14" width="15.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="14" width="15.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="13" width="15.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="13" width="15.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="13" width="15.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="13" width="15.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="13" width="15.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="13" width="15.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="13" width="15.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="13" width="15.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="13" width="15.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="13" width="15.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="13" width="15.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="13" width="15.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" style="13" width="15.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="18" max="18" style="13" width="15.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="19" max="19" style="12" width="14.147857142857141" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="19.5" customHeight="1">
-      <c r="A1" s="12" t="n"/>
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>ANUAL</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>xaneiro</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>febreiro</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>marzo</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>T1</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>abril</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>maio</t>
-        </is>
-      </c>
-      <c r="I1" s="2" t="inlineStr">
-        <is>
-          <t>xuño</t>
-        </is>
-      </c>
-      <c r="J1" s="2" t="inlineStr">
-        <is>
-          <t>T2</t>
-        </is>
-      </c>
-      <c r="K1" s="2" t="inlineStr">
-        <is>
-          <t>xullo</t>
-        </is>
-      </c>
-      <c r="L1" s="2" t="inlineStr">
-        <is>
-          <t>agosto</t>
-        </is>
-      </c>
-      <c r="M1" s="2" t="inlineStr">
-        <is>
-          <t>setembro</t>
-        </is>
-      </c>
-      <c r="N1" s="2" t="inlineStr">
-        <is>
-          <t>T3</t>
-        </is>
-      </c>
-      <c r="O1" s="2" t="inlineStr">
-        <is>
-          <t>outubro</t>
-        </is>
-      </c>
-      <c r="P1" s="2" t="inlineStr">
-        <is>
-          <t>novembro</t>
-        </is>
-      </c>
-      <c r="Q1" s="2" t="inlineStr">
-        <is>
-          <t>decembro</t>
-        </is>
-      </c>
-      <c r="R1" s="2" t="inlineStr">
-        <is>
-          <t>T4</t>
-        </is>
-      </c>
-      <c r="S1" s="3" t="n"/>
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="4"/>
     </row>
-    <row r="2" ht="19.5" customHeight="1">
-      <c r="A2" s="4" t="inlineStr">
-        <is>
-          <t>IVE cobrado</t>
-        </is>
-      </c>
-      <c r="B2" s="5">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
+      <c r="A2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="6">
         <f>F2+J2+N2+R2</f>
-        <v/>
-      </c>
-      <c r="C2" s="6" t="n">
+      </c>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7">
         <v>921.4275</v>
       </c>
-      <c r="D2" s="6" t="n"/>
-      <c r="E2" s="6" t="n"/>
-      <c r="F2" s="7">
+      <c r="E2" s="7"/>
+      <c r="F2" s="6">
         <f>SUM(C2:E2)</f>
-        <v/>
-      </c>
-      <c r="G2" s="6" t="n"/>
-      <c r="H2" s="6" t="n"/>
-      <c r="I2" s="6" t="n"/>
-      <c r="J2" s="7">
+      </c>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="6">
         <f>SUM(G2:I2)</f>
-        <v/>
-      </c>
-      <c r="K2" s="6" t="n"/>
-      <c r="L2" s="6" t="n"/>
-      <c r="M2" s="6" t="n"/>
-      <c r="N2" s="7">
+      </c>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="6">
         <f>SUM(K2:M2)</f>
-        <v/>
-      </c>
-      <c r="O2" s="6" t="n"/>
-      <c r="P2" s="6" t="n"/>
-      <c r="Q2" s="6" t="n"/>
-      <c r="R2" s="7">
+      </c>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="6">
         <f>SUM(O2:Q2)</f>
-        <v/>
-      </c>
-      <c r="S2" s="12" t="n"/>
+      </c>
+      <c r="S2" s="1"/>
     </row>
-    <row r="3" ht="19.5" customHeight="1">
-      <c r="A3" s="4" t="inlineStr">
-        <is>
-          <t>IVE pagado</t>
-        </is>
-      </c>
-      <c r="B3" s="5">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+      <c r="A3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="6">
         <f>F3+J3+N3+R3</f>
-        <v/>
-      </c>
-      <c r="C3" s="6" t="n">
+      </c>
+      <c r="C3" s="7">
         <v>3074.9292</v>
       </c>
-      <c r="D3" s="6" t="n"/>
-      <c r="E3" s="6" t="n"/>
-      <c r="F3" s="7">
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="6">
         <f>SUM(C3:E3)</f>
-        <v/>
-      </c>
-      <c r="G3" s="6" t="n"/>
-      <c r="H3" s="6" t="n"/>
-      <c r="I3" s="6" t="n"/>
-      <c r="J3" s="7">
+      </c>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="6">
         <f>SUM(G3:I3)</f>
-        <v/>
-      </c>
-      <c r="K3" s="6" t="n"/>
-      <c r="L3" s="6" t="n"/>
-      <c r="M3" s="6" t="n"/>
-      <c r="N3" s="7">
+      </c>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="6">
         <f>SUM(K3:M3)</f>
-        <v/>
-      </c>
-      <c r="O3" s="6" t="n"/>
-      <c r="P3" s="6" t="n"/>
-      <c r="Q3" s="6" t="n"/>
-      <c r="R3" s="7">
+      </c>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="6">
         <f>SUM(O3:Q3)</f>
-        <v/>
-      </c>
-      <c r="S3" s="12" t="n"/>
+      </c>
+      <c r="S3" s="1"/>
     </row>
-    <row r="4" ht="19.5" customHeight="1">
-      <c r="A4" s="12" t="n"/>
-      <c r="B4" s="8" t="n"/>
-      <c r="C4" s="9" t="n"/>
-      <c r="D4" s="9" t="n"/>
-      <c r="E4" s="9" t="n"/>
-      <c r="F4" s="7" t="n"/>
-      <c r="G4" s="9" t="n"/>
-      <c r="H4" s="9" t="n"/>
-      <c r="I4" s="9" t="n"/>
-      <c r="J4" s="7">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
+      <c r="A4" s="1"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="6">
         <f>SUM(G4:I4)</f>
-        <v/>
-      </c>
-      <c r="K4" s="9" t="n"/>
-      <c r="L4" s="9" t="n"/>
-      <c r="M4" s="9" t="n"/>
-      <c r="N4" s="7">
+      </c>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="6">
         <f>SUM(K4:M4)</f>
-        <v/>
-      </c>
-      <c r="O4" s="9" t="n"/>
-      <c r="P4" s="9" t="n"/>
-      <c r="Q4" s="9" t="n"/>
-      <c r="R4" s="7">
+      </c>
+      <c r="O4" s="9"/>
+      <c r="P4" s="9"/>
+      <c r="Q4" s="9"/>
+      <c r="R4" s="6">
         <f>SUM(O4:Q4)</f>
-        <v/>
-      </c>
-      <c r="S4" s="12" t="n"/>
+      </c>
+      <c r="S4" s="1"/>
     </row>
-    <row r="5" ht="20.25" customHeight="1">
-      <c r="A5" s="10" t="inlineStr">
-        <is>
-          <t>Declaración</t>
-        </is>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="20.25">
+      <c r="A5" s="10" t="s">
+        <v>19</v>
       </c>
       <c r="B5" s="11">
         <f>B2-B3</f>
-        <v/>
       </c>
       <c r="C5" s="11">
         <f>C2-C3</f>
-        <v/>
       </c>
       <c r="D5" s="11">
         <f>D2-D3</f>
-        <v/>
       </c>
       <c r="E5" s="11">
         <f>E2-E3</f>
-        <v/>
       </c>
       <c r="F5" s="11">
         <f>F2-F3</f>
-        <v/>
       </c>
       <c r="G5" s="11">
         <f>G2-G3</f>
-        <v/>
       </c>
       <c r="H5" s="11">
         <f>H2-H3</f>
-        <v/>
       </c>
       <c r="I5" s="11">
         <f>I2-I3</f>
-        <v/>
       </c>
       <c r="J5" s="11">
         <f>J2-J3</f>
-        <v/>
       </c>
       <c r="K5" s="11">
         <f>K2-K3</f>
-        <v/>
       </c>
       <c r="L5" s="11">
         <f>L2-L3</f>
-        <v/>
       </c>
       <c r="M5" s="11">
         <f>M2-M3</f>
-        <v/>
       </c>
       <c r="N5" s="11">
         <f>N2-N3</f>
-        <v/>
       </c>
       <c r="O5" s="11">
         <f>O2-O3</f>
-        <v/>
       </c>
       <c r="P5" s="11">
         <f>P2-P3</f>
-        <v/>
       </c>
       <c r="Q5" s="11">
         <f>Q2-Q3</f>
-        <v/>
       </c>
       <c r="R5" s="11">
         <f>R2-R3</f>
-        <v/>
-      </c>
-      <c r="S5" s="3" t="n"/>
+      </c>
+      <c r="S5" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
